--- a/Documents/RockDescriptor.xlsx
+++ b/Documents/RockDescriptor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Push Penguin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00194020\Documents\Push-Penguin-3D.git\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Describe Role in game</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Stop player and ice block.</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -409,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:H16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -425,27 +428,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -459,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -467,7 +470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -481,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -492,12 +495,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/RockDescriptor.xlsx
+++ b/Documents/RockDescriptor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Describe Role in game</t>
   </si>
@@ -62,28 +62,25 @@
     <t>Rock Item</t>
   </si>
   <si>
-    <t>Do not move upon interaction with the player.</t>
-  </si>
-  <si>
-    <t>To create an obstruction for the player in the game.</t>
-  </si>
-  <si>
-    <t>No Outgoing, not move.</t>
-  </si>
-  <si>
-    <t>Should Not Move. Collide with player.</t>
-  </si>
-  <si>
-    <t>None.</t>
-  </si>
-  <si>
-    <t>World, player, Ice Block</t>
-  </si>
-  <si>
-    <t>Stop player and ice block.</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Do not move upon interaction with the player. Display message saying rock cannot be moved.</t>
+  </si>
+  <si>
+    <t>No Outgoing, not move. Player message.</t>
+  </si>
+  <si>
+    <t>Player.</t>
+  </si>
+  <si>
+    <t>Should Not Move. Collide with player. Display message.</t>
+  </si>
+  <si>
+    <t>Stop player and ice block. Message.</t>
+  </si>
+  <si>
+    <t>To create an obstruction for the player in the game and display a message saying I'm rock.</t>
   </si>
 </sst>
 </file>
@@ -412,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -428,27 +425,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -462,40 +459,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -503,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
